--- a/biology/Zoologie/Cambridge_Greensand/Cambridge_Greensand.xlsx
+++ b/biology/Zoologie/Cambridge_Greensand/Cambridge_Greensand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Cambridge Greensand (Sables verts de Cambridge en français) sont une formation géologique datant du Crétacé inférieur et située en Angleterre, Europe.
-Des fossiles de dinosaures ont été trouvés dans cette formation[1].
+Des fossiles de dinosaures ont été trouvés dans cette formation.
 </t>
         </is>
       </c>
@@ -513,30 +525,32 @@
           <t>Paléofaune</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Enaliornis
-Enaliornis barretti[2]
-Enaliornis sedgwicki[2]
+Enaliornis barretti
+Enaliornis sedgwicki
 Enaliornis seeleyi
 Ornithischia
 Anoplosaurus
-Anoplosaurus curtonotus[3]
-« Anoplosaurus major »[3],[4]
+Anoplosaurus curtonotus
+« Anoplosaurus major »,
 Acanthopholis
-Acanthopholis eucercus[3]
-Acanthopholis platypus[3],[5]
-Acanthopholis macrocercus[3],[4]
-Acanthopholis stereocercus[3],[4]
+Acanthopholis eucercus
+Acanthopholis platypus,
+Acanthopholis macrocercus,
+Acanthopholis stereocercus,
 Eucercosaurus
-Eucercosaurus tanyspondylus [3]
+Eucercosaurus tanyspondylus 
 Trachodon
-Trachodon cantabrigiensis [6]
+Trachodon cantabrigiensis 
 Saurischia
 Macrurosaurus
-Macrurosaurus semnus[5]
-Pterosauria[7],[8],[9]
+Macrurosaurus semnus
+Pterosauria
 Amblydectes crassidens
 Amblydectes eurygnathus
 Camposipterus colorhinus
@@ -550,7 +564,7 @@
 Ornithocheirus platystomus
 Ornithocheirus polyodon
 Ornithostoma sedgwicki
-Ichthyosauria[10]
+Ichthyosauria
 Cetarthrosaurus walkeri
 Platypterygius campylodon
 Sisteronia seeleyi
